--- a/medicine/Enfance/Langelot_et_l'Avion_détourné/Langelot_et_l'Avion_détourné.xlsx
+++ b/medicine/Enfance/Langelot_et_l'Avion_détourné/Langelot_et_l'Avion_détourné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Langelot_et_l%27Avion_d%C3%A9tourn%C3%A9</t>
+          <t>Langelot_et_l'Avion_détourné</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Langelot et l'Avion détourné est le dix-huitième roman de la série Langelot, écrite par le Lieutenant X, pseudonyme de Vladimir Volkoff. Ce roman a été édité pour la première fois en 1972, dans la Bibliothèque verte.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Langelot_et_l%27Avion_d%C3%A9tourn%C3%A9</t>
+          <t>Langelot_et_l'Avion_détourné</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Personnages principaux
 Langelot : jeune agent secret du SNIF
@@ -543,7 +557,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Langelot_et_l%27Avion_d%C3%A9tourn%C3%A9</t>
+          <t>Langelot_et_l'Avion_détourné</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -561,7 +575,9 @@
           <t>Résumé détaillé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le professeur Roche-Verger doit se rendre au congrès international de balistique à Koubako, capitale de la Côte-d'Ébène. La DST, chargée de la protection de Roche-Verger, craignant que des agents d'une puissance étrangère ne tentent d'enlever ou de tuer le savant, demande au SNIF de le protéger. 
 Une substitution est décidée. Langelot est envoyé chez Hector Saupiquet, fonctionnaire au ministère des Finances, afin qu'il accepte de remplacer Roche-Verger pendant trois jours, le temps du congrès. En effet, Saupiquet est un sosie presque parfait de Roche-Verger. Moyennant rémunération, Saupiquet, amateur de romans d'espionnage, accepte de prendre la place du savant, tandis que ce dernier se rendra secrètement au congrès. La mission Casse-tête débute.
@@ -586,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Langelot_et_l%27Avion_d%C3%A9tourn%C3%A9</t>
+          <t>Langelot_et_l'Avion_détourné</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -604,9 +620,11 @@
           <t>Remarques autour du roman</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>A la fin des années soixante, les détournements d'avions sont fréquents (un par semaine, de janvier 1968 à septembre 1969[1]) et souvent meurtriers. En mai 1972, un vol de la Sabena est détourné par des terroristes de Septembre noir ; en juillet 1972, le Vol 841 Delta Air Lines est détourné vers Alger. Ils sont parfois spectaculaires : en 1971, le pirate de l'air D.B. Cooper saute de l'avion en parachute.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A la fin des années soixante, les détournements d'avions sont fréquents (un par semaine, de janvier 1968 à septembre 1969) et souvent meurtriers. En mai 1972, un vol de la Sabena est détourné par des terroristes de Septembre noir ; en juillet 1972, le Vol 841 Delta Air Lines est détourné vers Alger. Ils sont parfois spectaculaires : en 1971, le pirate de l'air D.B. Cooper saute de l'avion en parachute.
 C'est la troisième et avant-dernière apparition du colonel Chibani, présent dans trois autres romans de la série : Langelot et l'Inconnue, Langelot et les Crocodiles et Langelot kidnappé.
 Dans le roman intervient Madame Adélaïde Tonnerre, tante de Sosthène Valdombreuse, dont Langelot a fait connaissance dans Langelot et l'Inconnue et qu'il retrouve dans d'autres missions.
 Hector Saupiquet, fonctionnaire du ministère des finances, recruté par le SNIF pour jouer le professeur Roche-Verger, dont il est le sosie, lit le roman d'espionnage Les Trois Scorpions, de Rholf Barbare. Ce dernier est l'un des pseudonymes de Vladimir Volkoff, le "Lieutenant X".
